--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="139">
   <si>
     <t>Komponent</t>
   </si>
@@ -409,13 +409,37 @@
   </si>
   <si>
     <t>1m</t>
+  </si>
+  <si>
+    <t>EX-L100</t>
+  </si>
+  <si>
+    <t>https://www.i4wifi.eu/en/298853-elerix-ex-l100</t>
+  </si>
+  <si>
+    <t>paki koos hoidvad latid, keerata jõuga mitte lukustuva mutri vastu</t>
+  </si>
+  <si>
+    <t>https://www.kabelschuhe-shop.de/Kalitec-ALCU10CS2</t>
+  </si>
+  <si>
+    <t>M10 bimetall seib.</t>
+  </si>
+  <si>
+    <t>Väljund terminalide vahele.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALCU10CS2 </t>
+  </si>
+  <si>
+    <t>Kalitec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,6 +470,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -468,7 +498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -476,6 +506,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -778,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,7 +821,7 @@
     <col min="1" max="1" width="32.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="58.42578125" customWidth="1"/>
+    <col min="4" max="4" width="63.42578125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="113.28515625" customWidth="1"/>
   </cols>
@@ -1121,38 +1153,44 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B24">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>125</v>
+        <v>137</v>
+      </c>
+      <c r="D24" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="B25">
         <v>64</v>
       </c>
-      <c r="E25" t="s">
-        <v>45</v>
+      <c r="C25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B26">
-        <v>14</v>
-      </c>
-      <c r="D26" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
         <v>45</v>
@@ -1160,98 +1198,98 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="E27" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B28">
-        <v>27</v>
-      </c>
-      <c r="C28">
-        <v>1375547</v>
+        <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B29">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>93</v>
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1375547</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="E29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>93</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
-      </c>
-      <c r="F30" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
-      </c>
-      <c r="E32" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B33">
-        <v>12</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>122</v>
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>112</v>
       </c>
       <c r="E33" t="s">
         <v>47</v>
@@ -1259,13 +1297,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B34">
-        <v>10</v>
-      </c>
-      <c r="D34" t="s">
-        <v>112</v>
+        <v>12</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="E34" t="s">
         <v>47</v>
@@ -1273,13 +1311,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B35">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="E35" t="s">
         <v>47</v>
@@ -1287,13 +1325,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B36">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E36" t="s">
         <v>47</v>
@@ -1301,326 +1339,353 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="E37" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
-      </c>
-      <c r="F38" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="E38" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="B39">
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
-      </c>
-      <c r="E39" t="s">
-        <v>52</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="F39" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E40" t="s">
         <v>52</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B41">
-        <v>6</v>
-      </c>
-      <c r="C41" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>77</v>
       </c>
       <c r="D42" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E42" t="s">
-        <v>52</v>
-      </c>
-      <c r="F42" t="s">
-        <v>62</v>
+        <v>45</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E43" t="s">
         <v>52</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>75</v>
+      <c r="F43" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" t="s">
-        <v>130</v>
+        <v>54</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="E44" t="s">
         <v>52</v>
       </c>
-      <c r="F44" t="s">
-        <v>59</v>
+      <c r="F44" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
         <v>130</v>
       </c>
       <c r="D45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E45" t="s">
         <v>52</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="D46" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="E46" t="s">
         <v>52</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
         <v>57</v>
       </c>
       <c r="D47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E47" t="s">
         <v>52</v>
       </c>
       <c r="F47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>80</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="E54" t="s">
-        <v>48</v>
-      </c>
-    </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>49</v>
+      <c r="A55" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
-        <v>51</v>
-      </c>
-      <c r="E55" t="s">
-        <v>52</v>
-      </c>
-      <c r="F55" t="s">
-        <v>67</v>
+        <v>32</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>52</v>
-      </c>
-      <c r="F56" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="E58" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E59" t="s">
         <v>32</v>
       </c>
+      <c r="F59" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
-      <c r="C60" t="s">
-        <v>35</v>
+      <c r="C60" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="E60" t="s">
         <v>32</v>
       </c>
+      <c r="F60" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
+      <c r="C61" t="s">
+        <v>36</v>
+      </c>
       <c r="E61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
         <v>52</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F63" t="s">
         <v>127</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1"/>
-    <hyperlink ref="F39" r:id="rId2"/>
-    <hyperlink ref="F40" r:id="rId3"/>
-    <hyperlink ref="F37" r:id="rId4"/>
-    <hyperlink ref="F43" r:id="rId5"/>
-    <hyperlink ref="F41" r:id="rId6"/>
-    <hyperlink ref="F29" r:id="rId7"/>
+    <hyperlink ref="F40" r:id="rId2"/>
+    <hyperlink ref="F41" r:id="rId3"/>
+    <hyperlink ref="F38" r:id="rId4"/>
+    <hyperlink ref="F44" r:id="rId5"/>
+    <hyperlink ref="F42" r:id="rId6"/>
+    <hyperlink ref="F30" r:id="rId7"/>
+    <hyperlink ref="F55" r:id="rId8"/>
+    <hyperlink ref="F24" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
